--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2197893.862584834</v>
+        <v>2271751.858253925</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903704</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768292</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6861806.563677927</v>
+        <v>7066644.547877423</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>170.7481240559725</v>
       </c>
       <c r="D2" t="n">
-        <v>384.5605793939177</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>79.20507481715865</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -880,7 +882,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>133.1960204883557</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +898,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>35.88488960718618</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -908,7 +910,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>172.8970899955588</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.70809477558944</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>93.60791859913577</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>68.00197574886799</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>28.63433626345935</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>48.33675972717391</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>186.5768411754254</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1376,19 +1378,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>287.23057802809</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>271.4342543713333</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1528,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>76.26594387726834</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1588,10 +1590,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>32.49641236331083</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>347.6717367567776</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>97.56310642661438</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>128.2026151578589</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1825,10 +1827,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>79.20507481715899</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,10 +1849,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>397.3360934353472</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1862,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>314.0518665500859</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2002,22 +2004,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>66.60889756510008</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>165.4729187123519</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>39.93142548241837</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2147,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2242,10 +2244,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>149.3339408773905</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>55.62709520730909</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>356.9224994274309</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2333,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2476,10 +2478,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>234.7601499342231</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>114.3571814058518</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>271.4342543713331</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2570,10 +2572,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2618,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>393.553766680214</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2713,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>100.6116716601516</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>130.5217949457518</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2779,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>374.7552726386488</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2804,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>22.49891413969666</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>126.022615461944</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -3080,13 +3082,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>209.3277174905203</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -3244,16 +3246,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>229.2663389906592</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3274,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>343.2559819443612</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3424,7 +3426,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>38.79482613622854</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.96816341786008</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,22 +3508,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>374.7552726386488</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>200.926578514779</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>108.0255674923263</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3743,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>111.9899854554177</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3755,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>262.2425928248799</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3800,13 +3802,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3898,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>70.36042284486177</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>7.738048360274631</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>373.8316553010464</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>250.8301478892406</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4144,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>91.14746834815664</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4195,13 +4197,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>93.17492089670182</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468.2720014821252</v>
+        <v>332.990926276226</v>
       </c>
       <c r="C2" t="n">
-        <v>462.1878148357994</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D2" t="n">
-        <v>73.74278514497341</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E2" t="n">
-        <v>63.44297370227418</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F2" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4331,49 +4333,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>1209.69369432892</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M2" t="n">
-        <v>1209.69369432892</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="N2" t="n">
-        <v>1209.69369432892</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1259.149751022952</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>875.3894501581206</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>875.3894501581206</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y2" t="n">
-        <v>474.4527771062106</v>
+        <v>339.1717019003114</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3841994575342</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>329.2045039635594</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1491.158856172514</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1304.767088052424</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1065.218349029126</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U4" t="n">
-        <v>782.4202015752502</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V4" t="n">
-        <v>508.5344565147721</v>
+        <v>742.815603291408</v>
       </c>
       <c r="W4" t="n">
-        <v>229.4647920236465</v>
+        <v>463.7459388002824</v>
       </c>
       <c r="X4" t="n">
-        <v>229.4647920236465</v>
+        <v>329.2045039635594</v>
       </c>
       <c r="Y4" t="n">
-        <v>229.4647920236465</v>
+        <v>329.2045039635594</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.195547152093</v>
+        <v>654.2465468795142</v>
       </c>
       <c r="C5" t="n">
-        <v>918.0709564653636</v>
+        <v>648.1623602331883</v>
       </c>
       <c r="D5" t="n">
-        <v>881.8235932257816</v>
+        <v>647.7388343666529</v>
       </c>
       <c r="E5" t="n">
-        <v>467.4833777426783</v>
+        <v>233.3986188835496</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>216.4086108776412</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4565,28 +4567,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
-        <v>733.4074053521598</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4595,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>1738.416726816583</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W5" t="n">
-        <v>1738.416726816583</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.416726816583</v>
+        <v>1465.404399595914</v>
       </c>
       <c r="Y5" t="n">
-        <v>1738.416726816583</v>
+        <v>1064.467726544004</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>508.1659581184966</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.008892784822</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.259730306692</v>
+        <v>488.6991486406494</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>317.6057762023659</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1476.610529120012</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1476.610529120012</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1193.812381666136</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>1193.812381666136</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>914.7427171750103</v>
       </c>
       <c r="X7" t="n">
-        <v>224.1971997769844</v>
+        <v>676.3988550346937</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.1971997769844</v>
+        <v>676.3988550346937</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142.8551754043048</v>
+        <v>2231.056920380548</v>
       </c>
       <c r="C8" t="n">
-        <v>74.16631101150881</v>
+        <v>1820.932329693819</v>
       </c>
       <c r="D8" t="n">
-        <v>73.74278514497341</v>
+        <v>1416.468399786879</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>1002.128184303776</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>581.0977722574635</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1075.450954962253</v>
+        <v>1558.042465712245</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>2334.361056703999</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>3087.542073342617</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.293889628578</v>
+        <v>3731.172929759722</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4271.962701385146</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>4049.756217332004</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>3792.695725591514</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816583</v>
+        <v>3442.858170927995</v>
       </c>
       <c r="W8" t="n">
-        <v>1354.656425951752</v>
+        <v>3442.858170927995</v>
       </c>
       <c r="X8" t="n">
-        <v>954.0130281207041</v>
+        <v>3042.214773096948</v>
       </c>
       <c r="Y8" t="n">
-        <v>553.0763550687942</v>
+        <v>2641.278100045038</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>537.7254774811262</v>
+        <v>747.105897386657</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147451</v>
+        <v>747.105897386657</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147451</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>694.5919922339313</v>
+        <v>534.2452883269079</v>
       </c>
       <c r="C10" t="n">
-        <v>645.7669824085031</v>
+        <v>534.2452883269079</v>
       </c>
       <c r="D10" t="n">
-        <v>486.272337731413</v>
+        <v>534.2452883269079</v>
       </c>
       <c r="E10" t="n">
-        <v>325.3615225997325</v>
+        <v>534.2452883269079</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3615225997325</v>
+        <v>369.6141624374992</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1429.024853968129</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1189.476114944831</v>
       </c>
       <c r="U10" t="n">
-        <v>1485.891263925851</v>
+        <v>1001.014659212078</v>
       </c>
       <c r="V10" t="n">
-        <v>1212.005518865373</v>
+        <v>1001.014659212078</v>
       </c>
       <c r="W10" t="n">
-        <v>932.9358543742478</v>
+        <v>721.9449947209523</v>
       </c>
       <c r="X10" t="n">
-        <v>694.5919922339313</v>
+        <v>721.9449947209523</v>
       </c>
       <c r="Y10" t="n">
-        <v>694.5919922339313</v>
+        <v>721.9449947209523</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1491.516988031346</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C11" t="n">
-        <v>1081.392397344616</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D11" t="n">
-        <v>676.9284674376763</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E11" t="n">
-        <v>386.7965704396057</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F11" t="n">
-        <v>386.7965704396057</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G11" t="n">
-        <v>386.7965704396057</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H11" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>75.88807306732367</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>788.4794728795617</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1564.798063871316</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2317.979080509934</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2961.609936927039</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3436.916094107144</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3087.078539443624</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2703.318238578793</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2302.674840747745</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1901.738167695835</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M12" t="n">
-        <v>75.88807306732367</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N12" t="n">
-        <v>949.5461651789416</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O12" t="n">
-        <v>1560.671376429294</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>225.495528261867</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="C13" t="n">
-        <v>225.495528261867</v>
+        <v>655.3165903355377</v>
       </c>
       <c r="D13" t="n">
-        <v>225.495528261867</v>
+        <v>495.8219456584478</v>
       </c>
       <c r="E13" t="n">
-        <v>225.495528261867</v>
+        <v>334.9111305267672</v>
       </c>
       <c r="F13" t="n">
-        <v>225.495528261867</v>
+        <v>170.2800046373585</v>
       </c>
       <c r="G13" t="n">
-        <v>225.495528261867</v>
+        <v>170.2800046373585</v>
       </c>
       <c r="H13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.622483243484</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1094.073744220186</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>811.2755967663099</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>537.3898517058319</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>258.3201872147063</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X13" t="n">
-        <v>225.495528261867</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.495528261867</v>
+        <v>826.4099627738212</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1234.456496290856</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>824.3319056041261</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>824.3319056041261</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>824.3319056041261</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>824.3319056041261</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>473.1483331225325</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2357.143036448109</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>3110.324053086727</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3753.847007676619</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3753.847007676619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3659.122578160285</v>
+        <v>4563.636292181024</v>
       </c>
       <c r="T14" t="n">
-        <v>3436.916094107144</v>
+        <v>4341.429808127883</v>
       </c>
       <c r="U14" t="n">
-        <v>3179.855602366654</v>
+        <v>4084.369316387393</v>
       </c>
       <c r="V14" t="n">
-        <v>2830.018047703134</v>
+        <v>3734.531761723874</v>
       </c>
       <c r="W14" t="n">
-        <v>2446.257746838303</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X14" t="n">
-        <v>2045.614349007255</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y14" t="n">
-        <v>1644.677675955345</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>531.6943293326224</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>1192.782501251911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>1560.671376429294</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>1560.671376429294</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O15" t="n">
-        <v>1560.671376429294</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.88807306732367</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="C16" t="n">
-        <v>75.88807306732367</v>
+        <v>383.6521038908477</v>
       </c>
       <c r="D16" t="n">
-        <v>75.88807306732367</v>
+        <v>383.6521038908477</v>
       </c>
       <c r="E16" t="n">
-        <v>75.88807306732367</v>
+        <v>222.7412887591672</v>
       </c>
       <c r="F16" t="n">
-        <v>75.88807306732367</v>
+        <v>222.7412887591672</v>
       </c>
       <c r="G16" t="n">
-        <v>75.88807306732367</v>
+        <v>222.7412887591672</v>
       </c>
       <c r="H16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1605.286969688174</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1418.895201568084</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1179.346462544786</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>896.5483150909101</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>622.6625700304321</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>343.5929055393065</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="X16" t="n">
-        <v>263.5877794613681</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="Y16" t="n">
-        <v>263.5877794613681</v>
+        <v>554.7454763291312</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2459.725286714852</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C17" t="n">
-        <v>2049.600696028122</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>4055.286838127131</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W17" t="n">
-        <v>3671.526537262299</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X17" t="n">
-        <v>3270.883139431251</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y17" t="n">
-        <v>2869.946466379341</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>549.0499539559215</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M18" t="n">
-        <v>1392.027034650488</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="N18" t="n">
-        <v>1578.027001052593</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>242.8511528851661</v>
+        <v>588.462840695405</v>
       </c>
       <c r="C19" t="n">
-        <v>242.8511528851661</v>
+        <v>417.3694682571215</v>
       </c>
       <c r="D19" t="n">
-        <v>242.8511528851661</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E19" t="n">
-        <v>242.8511528851661</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1283.696393154561</v>
       </c>
       <c r="U19" t="n">
-        <v>1339.844446857597</v>
+        <v>1000.898245700685</v>
       </c>
       <c r="V19" t="n">
-        <v>1172.700084521888</v>
+        <v>1000.898245700685</v>
       </c>
       <c r="W19" t="n">
-        <v>893.6304200307625</v>
+        <v>1000.898245700685</v>
       </c>
       <c r="X19" t="n">
-        <v>655.2865578904458</v>
+        <v>1000.898245700685</v>
       </c>
       <c r="Y19" t="n">
-        <v>430.5508592792105</v>
+        <v>776.1625470894494</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2462.839627293158</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.715036606428</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>133.5784709051868</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5753,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2873.060806957647</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>423.0977207349383</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>1266.074801429505</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="N21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3303.879360348573</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>4379.386737077264</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>4105.500992016786</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W22" t="n">
-        <v>3954.658627494169</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X22" t="n">
-        <v>3716.314765353853</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="Y22" t="n">
-        <v>3491.579066742617</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D23" t="n">
-        <v>1648.251106699488</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6075,13 +6077,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.3370701289063</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D25" t="n">
         <v>93.2436976906228</v>
@@ -6169,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1196.702087168085</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U25" t="n">
-        <v>913.9039397142094</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V25" t="n">
-        <v>676.772475134186</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W25" t="n">
-        <v>676.772475134186</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="X25" t="n">
-        <v>676.772475134186</v>
+        <v>555.9503532121125</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.0367765229507</v>
+        <v>440.4380487617572</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2462.839627293158</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C26" t="n">
-        <v>2052.715036606428</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.251106699488</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6311,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N27" t="n">
-        <v>1597.308950304478</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>423.8317148059963</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="C28" t="n">
-        <v>252.7383423677128</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6409,25 +6411,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1297.821136963575</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>1297.821136963575</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V28" t="n">
-        <v>1165.980940048674</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W28" t="n">
-        <v>886.9112755575482</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="X28" t="n">
-        <v>648.5674134172316</v>
+        <v>311.2176947581669</v>
       </c>
       <c r="Y28" t="n">
-        <v>423.8317148059963</v>
+        <v>311.2176947581669</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6445,13 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.572457336103</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G29" t="n">
         <v>490.5039577458317</v>
@@ -6543,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>879.2884921858141</v>
+        <v>276.8806887209868</v>
       </c>
       <c r="C31" t="n">
-        <v>708.1951197475306</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D31" t="n">
-        <v>548.7004750704407</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E31" t="n">
-        <v>387.7896599387602</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>387.7896599387602</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>220.5392688643036</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1383.093855288175</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U31" t="n">
-        <v>1383.093855288175</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.093855288175</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W31" t="n">
-        <v>1104.024190797049</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="X31" t="n">
-        <v>1104.024190797049</v>
+        <v>276.8806887209868</v>
       </c>
       <c r="Y31" t="n">
-        <v>879.2884921858141</v>
+        <v>276.8806887209868</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
         <v>404.1521950629048</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4315.461670445927</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4058.401178705436</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>213.3947382540484</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>213.3947382540484</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6880,25 +6882,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U34" t="n">
-        <v>1100.295707834299</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V34" t="n">
-        <v>826.4099627738212</v>
+        <v>597.0490607929837</v>
       </c>
       <c r="W34" t="n">
-        <v>547.3402982826956</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="X34" t="n">
-        <v>308.996436142379</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
         <v>93.2436976906228</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6938,7 +6940,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>502.6734115919111</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="C37" t="n">
-        <v>331.5800391536276</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="D37" t="n">
-        <v>331.5800391536276</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="E37" t="n">
-        <v>331.5800391536276</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="F37" t="n">
-        <v>166.9489132642188</v>
+        <v>132.4303907575203</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9489132642188</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>166.9489132642188</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>1436.250826191383</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U37" t="n">
-        <v>1153.452678737507</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V37" t="n">
-        <v>1153.452678737507</v>
+        <v>837.543623783007</v>
       </c>
       <c r="W37" t="n">
-        <v>1153.452678737507</v>
+        <v>558.4739592918813</v>
       </c>
       <c r="X37" t="n">
-        <v>915.1088165971908</v>
+        <v>320.1300971515647</v>
       </c>
       <c r="Y37" t="n">
-        <v>690.3731179859554</v>
+        <v>320.1300971515647</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2459.725286714852</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2049.600696028122</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1645.136766121183</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E38" t="n">
-        <v>1230.796550638079</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F38" t="n">
-        <v>809.7661385917668</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>401.0378544845989</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3270.883139431251</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2869.946466379341</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7262,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>182.7137268369972</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>359.19719878084</v>
+        <v>591.0821058804529</v>
       </c>
       <c r="C40" t="n">
-        <v>359.19719878084</v>
+        <v>419.9887334421693</v>
       </c>
       <c r="D40" t="n">
-        <v>359.19719878084</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E40" t="n">
-        <v>359.19719878084</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F40" t="n">
-        <v>359.19719878084</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1419.686454397555</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U40" t="n">
-        <v>1136.888306943679</v>
+        <v>1241.861373026049</v>
       </c>
       <c r="V40" t="n">
-        <v>863.002561883201</v>
+        <v>1241.861373026049</v>
       </c>
       <c r="W40" t="n">
-        <v>583.9328973920753</v>
+        <v>1241.861373026049</v>
       </c>
       <c r="X40" t="n">
-        <v>583.9328973920753</v>
+        <v>1003.517510885733</v>
       </c>
       <c r="Y40" t="n">
-        <v>359.19719878084</v>
+        <v>778.7818122744973</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2154.141270192634</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C41" t="n">
-        <v>1744.016679505904</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D41" t="n">
-        <v>1630.895482076189</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.555266593086</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F41" t="n">
-        <v>795.5248545467734</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G41" t="n">
-        <v>386.7965704396057</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H41" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1580.824445456356</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2300.455092234635</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2944.08594865174</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3473.242646570892</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3572.197169313043</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3315.136677572553</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>2965.299122909033</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2965.299122909033</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2965.299122909033</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2564.362449857123</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>531.6943293326224</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>544.7620862603114</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M42" t="n">
-        <v>544.7620862603114</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N42" t="n">
-        <v>1418.420178371929</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.377268917824</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>572.5233865266964</v>
+        <v>3292.280632587379</v>
       </c>
       <c r="C43" t="n">
-        <v>401.4300140884129</v>
+        <v>3292.280632587379</v>
       </c>
       <c r="D43" t="n">
-        <v>401.4300140884129</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E43" t="n">
-        <v>240.5191989567324</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F43" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G43" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H43" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S43" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T43" t="n">
-        <v>1605.286969688174</v>
+        <v>4591.113750344411</v>
       </c>
       <c r="U43" t="n">
-        <v>1322.488822234298</v>
+        <v>4308.315602890535</v>
       </c>
       <c r="V43" t="n">
-        <v>1314.672611769374</v>
+        <v>4034.429857830057</v>
       </c>
       <c r="W43" t="n">
-        <v>1035.602947278248</v>
+        <v>3755.360193338931</v>
       </c>
       <c r="X43" t="n">
-        <v>797.2590851379317</v>
+        <v>3517.016331198615</v>
       </c>
       <c r="Y43" t="n">
-        <v>572.5233865266964</v>
+        <v>3292.280632587379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1234.456496290856</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C44" t="n">
-        <v>824.3319056041261</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D44" t="n">
-        <v>824.3319056041261</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E44" t="n">
-        <v>824.3319056041261</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>824.3319056041261</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>415.6036214969582</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>330.073544535078</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1042.664944347316</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1818.98353533907</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2572.164551977688</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3215.795408394793</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3744.952106313945</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>2446.257746838303</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2045.614349007255</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>1644.677675955345</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>531.6943293326224</v>
+        <v>635.6676409272679</v>
       </c>
       <c r="L45" t="n">
-        <v>531.6943293326224</v>
+        <v>1296.755812846556</v>
       </c>
       <c r="M45" t="n">
-        <v>1374.671410027189</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>1374.671410027189</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1772.53280423384</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1772.53280423384</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>812.7828211132721</v>
+        <v>3558.234133677597</v>
       </c>
       <c r="C46" t="n">
-        <v>641.6894486749886</v>
+        <v>3558.234133677597</v>
       </c>
       <c r="D46" t="n">
-        <v>482.1948039978986</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="E46" t="n">
-        <v>482.1948039978986</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="F46" t="n">
-        <v>317.5636781084899</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="G46" t="n">
-        <v>225.495528261867</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H46" t="n">
-        <v>75.88807306732367</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1605.286969688174</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S46" t="n">
-        <v>1605.286969688174</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T46" t="n">
-        <v>1365.738230664876</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U46" t="n">
-        <v>1365.738230664876</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="V46" t="n">
-        <v>1091.852485604398</v>
+        <v>3877.085914002672</v>
       </c>
       <c r="W46" t="n">
-        <v>812.7828211132721</v>
+        <v>3782.969832288832</v>
       </c>
       <c r="X46" t="n">
-        <v>812.7828211132721</v>
+        <v>3782.969832288832</v>
       </c>
       <c r="Y46" t="n">
-        <v>812.7828211132721</v>
+        <v>3558.234133677597</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>496.3946935832877</v>
+        <v>339.7024893595825</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>395.5690244730515</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>200.7852390175288</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>537.3610023606261</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>552.9160747585987</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8234,10 +8236,10 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>528.6762761514423</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>782.0306179295947</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>553.6531472828635</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8535,19 +8537,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>557.0846165901664</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>885.2086776792868</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8705,7 +8707,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>569.4837713155188</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
@@ -8766,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
@@ -8775,13 +8777,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>651.5171678328039</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>675.0496721821737</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
@@ -8939,13 +8941,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.212962080219</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9003,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>429.1692081600164</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>204.0221919942796</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>167.8946794718224</v>
       </c>
       <c r="N18" t="n">
-        <v>241.07214733527</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9477,19 +9479,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>389.300405673794</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>448.4101882023532</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
@@ -9498,7 +9500,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9723,16 +9725,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O24" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9957,25 +9959,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O27" t="n">
-        <v>605.6544519663084</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>461.302781541648</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>177.1904702224191</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
@@ -10437,19 +10439,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10662,10 +10664,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
@@ -10674,7 +10676,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
@@ -10683,7 +10685,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>89.84900189613728</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10908,22 +10910,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>147.9380505529371</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,10 +11068,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>819.8119339670028</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11081,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>69.31427828326224</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>885.2086776792871</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11297,7 +11299,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11315,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>139.9848620276765</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>408.9682935664456</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>909.0562844399999</v>
@@ -11388,13 +11390,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>459.6316751683344</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>122.9662353001823</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>71.84543676532957</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>203.4640111556026</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>56.96926450931852</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>36.36515802722576</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23668,7 +23670,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>19.90876548473901</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>156.7553487017545</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23735,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>32.28731256679816</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>170.5443540679648</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>105.6739688975213</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>45.5568195736792</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>126.9450269688239</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>166.8612464178138</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>49.1964684404137</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>36.38673767565015</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>108.1311602192711</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>134.6847134965115</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24458,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>3.083197172522944</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>62.37314297036308</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24619,7 +24621,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>140.6250926641214</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>25.66401796922128</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24694,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>25.66401796922122</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.883524574204</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>22.08876518065394</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.65670172208945</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>41.88054861921404</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25160,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>32.28731256679839</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.083197172522887</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25321,16 +25323,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>126.7830610274835</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>42.21442201885702</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>42.06483528720054</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25561,13 +25563,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>36.22667311828596</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>171.9445984870108</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>288.4293051524524</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>45.55681957367926</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25786,16 +25788,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25837,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>166.7928287882031</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.4088392495987</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>56.96926450931855</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>74.43041881555537</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>183.1040469495125</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>661186.4346417265</v>
+        <v>665545.0961675656</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>525298.2000084728</v>
+        <v>594024.5808771065</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>525298.2000084728</v>
+        <v>594024.5808771066</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>594024.5808771068</v>
+        <v>594024.5808771066</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>594024.5808771069</v>
+        <v>594024.5808771066</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>594024.5808771068</v>
+        <v>594024.5808771065</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>594024.5808771065</v>
+        <v>594024.5808771068</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>594024.5808771068</v>
+        <v>594024.5808771065</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>594024.5808771068</v>
+        <v>594024.5808771066</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>594024.5808771068</v>
+        <v>594024.5808771066</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>525298.2000084729</v>
+        <v>594024.5808771066</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>525298.2000084727</v>
+        <v>594024.5808771066</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>488647.1790973708</v>
+        <v>488647.1790973709</v>
       </c>
       <c r="C2" t="n">
         <v>488647.1790973707</v>
@@ -26320,10 +26322,10 @@
         <v>488647.1790973708</v>
       </c>
       <c r="E2" t="n">
-        <v>384210.2966792092</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="F2" t="n">
-        <v>384210.2966792092</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="G2" t="n">
         <v>434473.0013026408</v>
@@ -26332,28 +26334,28 @@
         <v>434473.0013026408</v>
       </c>
       <c r="I2" t="n">
-        <v>434473.0013026406</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="J2" t="n">
-        <v>434473.0013026406</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="K2" t="n">
-        <v>434473.0013026406</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="L2" t="n">
+        <v>434473.0013026408</v>
+      </c>
+      <c r="M2" t="n">
+        <v>434473.0013026405</v>
+      </c>
+      <c r="N2" t="n">
         <v>434473.0013026407</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>434473.0013026408</v>
       </c>
-      <c r="N2" t="n">
-        <v>434473.0013026408</v>
-      </c>
-      <c r="O2" t="n">
-        <v>384210.296679209</v>
-      </c>
       <c r="P2" t="n">
-        <v>384210.2966792093</v>
+        <v>434473.0013026405</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>164775.2337200961</v>
+        <v>71864.46850972368</v>
       </c>
       <c r="E4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="F4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="P4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83547.37040566312</v>
+        <v>83547.37040566321</v>
       </c>
       <c r="C6" t="n">
-        <v>258502.880298777</v>
+        <v>258502.8802987771</v>
       </c>
       <c r="D6" t="n">
-        <v>258502.8802987771</v>
+        <v>145954.1703223784</v>
       </c>
       <c r="E6" t="n">
-        <v>185527.3284741972</v>
+        <v>321173.4631397692</v>
       </c>
       <c r="F6" t="n">
-        <v>312881.9952639479</v>
+        <v>348142.4173207034</v>
       </c>
       <c r="G6" t="n">
-        <v>288680.9626347418</v>
+        <v>348142.4173207036</v>
       </c>
       <c r="H6" t="n">
-        <v>348142.4173207035</v>
+        <v>348142.4173207036</v>
       </c>
       <c r="I6" t="n">
-        <v>348142.4173207033</v>
+        <v>348142.4173207034</v>
       </c>
       <c r="J6" t="n">
         <v>211547.6165148084</v>
       </c>
       <c r="K6" t="n">
+        <v>348142.4173207034</v>
+      </c>
+      <c r="L6" t="n">
+        <v>208143.1064559508</v>
+      </c>
+      <c r="M6" t="n">
+        <v>325633.1525466559</v>
+      </c>
+      <c r="N6" t="n">
+        <v>348142.4173207034</v>
+      </c>
+      <c r="O6" t="n">
+        <v>348142.4173207035</v>
+      </c>
+      <c r="P6" t="n">
         <v>348142.4173207033</v>
-      </c>
-      <c r="L6" t="n">
-        <v>348142.4173207034</v>
-      </c>
-      <c r="M6" t="n">
-        <v>241847.6053028287</v>
-      </c>
-      <c r="N6" t="n">
-        <v>348142.4173207035</v>
-      </c>
-      <c r="O6" t="n">
-        <v>312881.9952639478</v>
-      </c>
-      <c r="P6" t="n">
-        <v>312881.995263948</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>235.2752207238901</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.85871121395235</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27555,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.214916324195698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>102.7644030305577</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>364.5344010006838</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>231.7439112705374</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27667,22 +27669,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.1146145545145</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>90.91993183975306</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>338.0213690309945</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>105.2939281903808</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>121.0456789867267</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>93.3933248039117</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -34699,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>244.2170912967377</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>400.9092955204429</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>338.004740734634</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>441.8756042977813</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -34954,10 +34956,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>471.1119924130248</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>686.5452198667498</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>460.0037840019794</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>500.9700927793173</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>832.0152842855368</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35425,7 +35427,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>475.8344080346346</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>593.9528840943865</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>617.2981931821737</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
@@ -35659,13 +35661,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.0231864544359</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>110.3303957334049</v>
       </c>
       <c r="N18" t="n">
-        <v>187.87875394152</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36376,7 +36378,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36443,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O24" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O27" t="n">
-        <v>547.9029729663084</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>121.3646874378037</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
@@ -37394,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>90.37376681451964</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,10 +37788,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>726.8996432103835</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37801,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>13.19975447241319</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38035,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>49.95105762852447</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>353.1425107818302</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
         <v>851.4920007015825</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>401.8801961683344</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2271751.858253925</v>
+        <v>2270439.212798345</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789206</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>170.7481240559725</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>49.54034118172278</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>106.9706214097036</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1960204883557</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>394.6360885293879</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8970899955588</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>72.1550982739948</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>93.60791859913577</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>7.403252162746612</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1150,7 +1150,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>28.63433626345935</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1195,7 +1195,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1293,7 +1293,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>186.5768411754254</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.81447036890223</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>271.4342543713333</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1432,7 +1432,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>376.8395006836604</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>76.26594387726834</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.56310642661438</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1669,10 +1669,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>128.2026151578589</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1824,16 +1824,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>76.43104772188497</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1897,13 +1897,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V17" t="n">
-        <v>314.0518665500859</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.60889756510008</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>113.1773371911337</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>39.93142548241837</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2244,10 +2244,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>153.0251390105129</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.62709520730909</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>356.9224994274309</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2335,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2538,13 +2538,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>114.3571814058518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>271.4342543713331</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2572,10 +2572,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>32.97059214333657</v>
       </c>
       <c r="F28" t="n">
-        <v>100.6116716601516</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>402.9401476073396</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2803,16 +2803,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>378.9769832968749</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>73.03997059153768</v>
       </c>
       <c r="C31" t="n">
-        <v>22.49891413969666</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>85.25432609134864</v>
       </c>
       <c r="V34" t="n">
-        <v>229.2663389906592</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3274,10 +3274,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>384.5327953590509</v>
+        <v>371.26328835217</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>38.79482613622854</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>154.6247997992178</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3508,13 +3508,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>374.7552726386488</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>39.93142548241837</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>108.0255674923263</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>267.38583728833</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3757,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>262.2425928248799</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>42.43741174507669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>70.36042284486177</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>373.8316553010464</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>31.42227043795242</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -4191,19 +4191,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>93.17492089670182</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>172.3217367015055</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>1424.076341063617</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>1013.951750376887</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>609.4878204699475</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>599.1880090272482</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>178.1575969809358</v>
       </c>
       <c r="G2" t="n">
         <v>128.1168483125289</v>
@@ -4336,46 +4336,46 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>537.7254774811266</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1430.257116687702</v>
       </c>
     </row>
     <row r="3">
@@ -4409,10 +4409,10 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
         <v>41.76508562960205</v>
@@ -4421,13 +4421,13 @@
         <v>558.6080202959273</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
         <v>2088.254281480102</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.2045039635594</v>
+        <v>1050.354217106306</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>879.2608446680224</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>719.7661999909324</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1980.203148743028</v>
       </c>
       <c r="U4" t="n">
-        <v>1016.701348351886</v>
+        <v>1980.203148743028</v>
       </c>
       <c r="V4" t="n">
-        <v>742.815603291408</v>
+        <v>1980.203148743028</v>
       </c>
       <c r="W4" t="n">
-        <v>463.7459388002824</v>
+        <v>1701.133484251902</v>
       </c>
       <c r="X4" t="n">
-        <v>329.2045039635594</v>
+        <v>1462.789622111586</v>
       </c>
       <c r="Y4" t="n">
-        <v>329.2045039635594</v>
+        <v>1238.05392350035</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>654.2465468795142</v>
+        <v>1689.631969834256</v>
       </c>
       <c r="C5" t="n">
-        <v>648.1623602331883</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D5" t="n">
-        <v>647.7388343666529</v>
+        <v>875.0434492405864</v>
       </c>
       <c r="E5" t="n">
-        <v>233.3986188835496</v>
+        <v>864.7436377978871</v>
       </c>
       <c r="F5" t="n">
-        <v>216.4086108776412</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,25 +4570,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
         <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.404399595914</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1064.467726544004</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4652,22 +4652,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1571.411346813777</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.6991486406494</v>
+        <v>551.4005289845462</v>
       </c>
       <c r="C7" t="n">
-        <v>317.6057762023659</v>
+        <v>551.4005289845462</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>391.9058843074562</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>230.9950691757757</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>230.9950691757757</v>
       </c>
       <c r="G7" t="n">
         <v>158.1111315252759</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1476.610529120012</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1476.610529120012</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1193.812381666136</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V7" t="n">
-        <v>1193.812381666136</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W7" t="n">
-        <v>914.7427171750103</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="X7" t="n">
-        <v>676.3988550346937</v>
+        <v>776.1362275957815</v>
       </c>
       <c r="Y7" t="n">
-        <v>676.3988550346937</v>
+        <v>551.4005289845462</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2231.056920380548</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>1820.932329693819</v>
+        <v>1734.854929646784</v>
       </c>
       <c r="D8" t="n">
-        <v>1416.468399786879</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>1002.128184303776</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>581.0977722574635</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>172.3694881502956</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
         <v>172.3694881502956</v>
@@ -4804,52 +4804,52 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351231</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441626</v>
+        <v>564.8467047942797</v>
       </c>
       <c r="L8" t="n">
-        <v>1558.042465712245</v>
+        <v>1277.438104606518</v>
       </c>
       <c r="M8" t="n">
-        <v>2334.361056703999</v>
+        <v>2053.756695598272</v>
       </c>
       <c r="N8" t="n">
-        <v>3087.542073342617</v>
+        <v>2806.93771223689</v>
       </c>
       <c r="O8" t="n">
-        <v>3731.172929759722</v>
+        <v>3450.568568653995</v>
       </c>
       <c r="P8" t="n">
-        <v>4260.329627678873</v>
+        <v>3979.725266573146</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678873</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
         <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4271.962701385146</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4049.756217332004</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>3792.695725591514</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>3442.858170927995</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3442.858170927995</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>3042.214773096948</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2641.278100045038</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736876</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736876</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>747.105897386657</v>
+        <v>278.830583030002</v>
       </c>
       <c r="M9" t="n">
-        <v>747.105897386657</v>
+        <v>278.830583030002</v>
       </c>
       <c r="N9" t="n">
-        <v>1570.801028829339</v>
+        <v>487.4399542368308</v>
       </c>
       <c r="O9" t="n">
-        <v>1570.801028829339</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>534.2452883269079</v>
+        <v>573.9689441746522</v>
       </c>
       <c r="C10" t="n">
-        <v>534.2452883269079</v>
+        <v>402.8755717363687</v>
       </c>
       <c r="D10" t="n">
-        <v>534.2452883269079</v>
+        <v>402.8755717363687</v>
       </c>
       <c r="E10" t="n">
-        <v>534.2452883269079</v>
+        <v>402.8755717363687</v>
       </c>
       <c r="F10" t="n">
-        <v>369.6141624374992</v>
+        <v>402.8755717363687</v>
       </c>
       <c r="G10" t="n">
-        <v>202.3637713630426</v>
+        <v>235.6251806619121</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630426</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
         <v>86.01772546736876</v>
@@ -4989,25 +4989,25 @@
         <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1429.024853968129</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1189.476114944831</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1001.014659212078</v>
+        <v>1332.618474634343</v>
       </c>
       <c r="V10" t="n">
-        <v>1001.014659212078</v>
+        <v>1058.732729573865</v>
       </c>
       <c r="W10" t="n">
-        <v>721.9449947209523</v>
+        <v>779.6630650827392</v>
       </c>
       <c r="X10" t="n">
-        <v>721.9449947209523</v>
+        <v>779.6630650827392</v>
       </c>
       <c r="Y10" t="n">
-        <v>721.9449947209523</v>
+        <v>761.6686505686965</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2512.458907120301</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C11" t="n">
-        <v>2102.334316433571</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D11" t="n">
-        <v>1697.870386526632</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>1283.530171043528</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>862.4997589972158</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>453.771474890048</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>874.0699105066985</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N12" t="n">
-        <v>874.0699105066985</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.4099627738212</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>655.3165903355377</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>495.8219456584478</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>334.9111305267672</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>170.2800046373585</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>170.2800046373585</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5238,13 +5238,13 @@
         <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>826.4099627738212</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X13" t="n">
-        <v>826.4099627738212</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.4099627738212</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4563.636292181024</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4341.429808127883</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4084.369316387393</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3734.531761723874</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>3350.771460859042</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X14" t="n">
-        <v>2950.128063027995</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2549.191389976085</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5363,16 +5363,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>1615.520903630173</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
         <v>1760.328909494509</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.7454763291312</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>383.6521038908477</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>383.6521038908477</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>222.7412887591672</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>222.7412887591672</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>222.7412887591672</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W16" t="n">
-        <v>554.7454763291312</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X16" t="n">
-        <v>554.7454763291312</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.7454763291312</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2134.851174492981</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1724.726583806251</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
         <v>1320.262653899312</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>3730.41272590526</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.652425040428</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2946.009027209381</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2545.072354157471</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>947.1447271725442</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
         <v>1760.328909494509</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>588.462840695405</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C19" t="n">
-        <v>417.3694682571215</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D19" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1283.696393154561</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1000.898245700685</v>
+        <v>1268.773312670868</v>
       </c>
       <c r="V19" t="n">
-        <v>1000.898245700685</v>
+        <v>994.8875676103903</v>
       </c>
       <c r="W19" t="n">
-        <v>1000.898245700685</v>
+        <v>715.8179031192647</v>
       </c>
       <c r="X19" t="n">
-        <v>1000.898245700685</v>
+        <v>477.4740409789481</v>
       </c>
       <c r="Y19" t="n">
-        <v>776.1625470894494</v>
+        <v>252.7383423677128</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2503.174400507722</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>2093.049809820992</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1688.585879914052</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.245664430949</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>853.2152523846366</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>444.4869682774688</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>133.5784709051868</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2913.395580172211</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5837,22 +5837,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.7425299376769</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C22" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1468.071746826106</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1468.071746826106</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1468.071746826106</v>
       </c>
       <c r="V22" t="n">
-        <v>828.6312213896092</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="W22" t="n">
-        <v>828.6312213896092</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X22" t="n">
-        <v>828.6312213896092</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y22" t="n">
-        <v>772.4422363317212</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -5992,7 +5992,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1593.281623979807</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1406.889855859717</v>
       </c>
       <c r="T25" t="n">
-        <v>1350.978107866783</v>
+        <v>1167.341116836419</v>
       </c>
       <c r="U25" t="n">
-        <v>1068.179960412907</v>
+        <v>884.5429693825431</v>
       </c>
       <c r="V25" t="n">
-        <v>794.2942153524291</v>
+        <v>610.6572243220651</v>
       </c>
       <c r="W25" t="n">
-        <v>794.2942153524291</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X25" t="n">
-        <v>555.9503532121125</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y25" t="n">
-        <v>440.4380487617572</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2238.282892603803</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C26" t="n">
-        <v>1828.158301917073</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D26" t="n">
-        <v>1423.694372010133</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E26" t="n">
-        <v>1009.35415652703</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F26" t="n">
-        <v>588.3237444807176</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="27">
@@ -6311,22 +6311,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N27" t="n">
-        <v>494.6659264600851</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O27" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>311.2176947581669</v>
+        <v>458.4288430821008</v>
       </c>
       <c r="C28" t="n">
-        <v>311.2176947581669</v>
+        <v>458.4288430821008</v>
       </c>
       <c r="D28" t="n">
-        <v>311.2176947581669</v>
+        <v>458.4288430821008</v>
       </c>
       <c r="E28" t="n">
-        <v>311.2176947581669</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F28" t="n">
-        <v>209.5897435862967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V28" t="n">
-        <v>828.6312213896092</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W28" t="n">
-        <v>549.5615568984836</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="X28" t="n">
-        <v>311.2176947581669</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="Y28" t="n">
-        <v>311.2176947581669</v>
+        <v>646.1285494761452</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>873.3089913790386</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="30">
@@ -6542,19 +6542,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>494.6659264600851</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
         <v>1198.623017005979</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>276.8806887209868</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C31" t="n">
-        <v>254.1545128223033</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D31" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T31" t="n">
-        <v>1350.978107866783</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U31" t="n">
-        <v>1068.179960412907</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V31" t="n">
-        <v>794.2942153524291</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="W31" t="n">
-        <v>515.2245508613034</v>
+        <v>735.9533250185732</v>
       </c>
       <c r="X31" t="n">
-        <v>276.8806887209868</v>
+        <v>497.6094628782566</v>
       </c>
       <c r="Y31" t="n">
-        <v>276.8806887209868</v>
+        <v>497.6094628782566</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>213.3947382540484</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>213.3947382540484</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
         <v>1760.328909494509</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>828.6312213896092</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V34" t="n">
-        <v>597.0490607929837</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W34" t="n">
-        <v>317.9793963018581</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X34" t="n">
-        <v>317.9793963018581</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.2436976906228</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E35" t="n">
-        <v>1287.649206862142</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F35" t="n">
         <v>899.2322418529996</v>
@@ -6940,7 +6940,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6982,7 +6982,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>1402.950983437843</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>1402.950983437843</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N36" t="n">
-        <v>1402.950983437843</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O36" t="n">
-        <v>2106.908073983737</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
-        <v>2106.908073983737</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.4303907575203</v>
+        <v>730.5070037683934</v>
       </c>
       <c r="C37" t="n">
-        <v>132.4303907575203</v>
+        <v>730.5070037683934</v>
       </c>
       <c r="D37" t="n">
-        <v>132.4303907575203</v>
+        <v>571.0123590913033</v>
       </c>
       <c r="E37" t="n">
-        <v>132.4303907575203</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F37" t="n">
-        <v>132.4303907575203</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7131,16 +7131,16 @@
         <v>1111.429368843485</v>
       </c>
       <c r="V37" t="n">
-        <v>837.543623783007</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W37" t="n">
-        <v>558.4739592918813</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X37" t="n">
-        <v>320.1300971515647</v>
+        <v>955.2427023796287</v>
       </c>
       <c r="Y37" t="n">
-        <v>320.1300971515647</v>
+        <v>730.5070037683934</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D38" t="n">
-        <v>1692.113136769081</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E38" t="n">
-        <v>1277.772921285978</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>133.5784709051868</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7219,7 +7219,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>182.7137268369972</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
         <v>1760.328909494509</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>591.0821058804529</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>419.9887334421693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1241.861373026049</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1241.861373026049</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>1241.861373026049</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X40" t="n">
-        <v>1003.517510885733</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y40" t="n">
-        <v>778.7818122744973</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2503.174400507722</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2093.049809820992</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.585879914052</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1274.245664430949</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>853.2152523846366</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>444.4869682774688</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2913.395580172211</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N42" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3292.280632587379</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="C43" t="n">
-        <v>3292.280632587379</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="D43" t="n">
-        <v>3132.785987910289</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="E43" t="n">
-        <v>3132.785987910289</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="F43" t="n">
-        <v>3132.785987910289</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="G43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4591.113750344411</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>4308.315602890535</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V43" t="n">
-        <v>4034.429857830057</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W43" t="n">
-        <v>3755.360193338931</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X43" t="n">
-        <v>3517.016331198615</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y43" t="n">
-        <v>3292.280632587379</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2512.458907120301</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C44" t="n">
-        <v>2102.334316433571</v>
+        <v>2084.454703715471</v>
       </c>
       <c r="D44" t="n">
-        <v>1697.870386526632</v>
+        <v>1679.990773808531</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1265.650558325428</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>844.6201462791155</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>435.8918621719477</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>124.9833647996657</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>635.6676409272679</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>1296.755812846556</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3558.234133677597</v>
+        <v>380.6831160245802</v>
       </c>
       <c r="C46" t="n">
-        <v>3558.234133677597</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D46" t="n">
-        <v>3398.739489000507</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E46" t="n">
-        <v>3398.739489000507</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F46" t="n">
-        <v>3398.739489000507</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G46" t="n">
-        <v>3398.739489000507</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>4390.520398086449</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>4150.971659063151</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U46" t="n">
-        <v>4150.971659063151</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V46" t="n">
-        <v>3877.085914002672</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W46" t="n">
-        <v>3782.969832288832</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="X46" t="n">
-        <v>3782.969832288832</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="Y46" t="n">
-        <v>3558.234133677597</v>
+        <v>380.6831160245802</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>339.7024893595825</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
@@ -7996,13 +7996,13 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>200.7852390175288</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8218,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>552.9160747585987</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>425.427124839344</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>572.8020253569655</v>
       </c>
       <c r="L8" t="n">
-        <v>782.0306179295947</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>885.2086776792868</v>
+        <v>263.9099299663043</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8771,13 +8771,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>651.5171678328039</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8786,7 +8786,7 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8941,7 +8941,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -9011,19 +9011,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>204.0221919942796</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
@@ -9251,16 +9251,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>167.8946794718224</v>
+        <v>506.3432205021228</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>448.4101882023532</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9497,13 +9497,13 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>841.9067396726143</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9959,16 +9959,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>458.6703921507826</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>536.3885161299984</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>461.302781541648</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10205,7 +10205,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10430,22 +10430,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>177.1904702224191</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10588,7 +10588,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
@@ -10679,13 +10679,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.84900189613728</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10904,22 +10904,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M39" t="n">
-        <v>147.9380505529371</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11141,7 +11141,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>723.8803540323523</v>
@@ -11150,7 +11150,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>885.2086776792871</v>
+        <v>71.42007065981008</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
@@ -11159,7 +11159,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,16 +11375,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>408.9682935664456</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11393,13 +11393,13 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3.083197172522716</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>71.84543676532957</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>36.36515802722576</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>62.56142803888764</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23670,7 +23670,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>19.90876548473901</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>194.7158398879883</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V17" t="n">
-        <v>32.28731256679816</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>170.5443540679648</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>166.7928287882034</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>45.5568195736792</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>31.50271142837593</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.8612464178138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.1964684404137</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.1311602192711</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>134.6847134965115</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24609,19 +24609,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>126.3311148370271</v>
       </c>
       <c r="F28" t="n">
-        <v>62.37314297036308</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.083197172522944</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>112.7827387385663</v>
       </c>
       <c r="C31" t="n">
-        <v>146.883524574204</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="V34" t="n">
-        <v>41.88054861921404</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>32.28731256679839</v>
+        <v>45.55681957367926</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>126.7830610274835</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25371,16 +25371,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>81.33562371969569</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>42.06483528720054</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>45.5568195736792</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25563,7 +25563,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>171.9445984870108</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>8.893130557884319</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>45.55681957367926</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25800,7 +25800,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>123.1404754186353</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25839,7 +25839,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>166.7928287882031</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>54.06597461814515</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26040,7 +26040,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>183.1040469495125</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>50.16660492361743</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>594024.5808771065</v>
+        <v>594024.5808771068</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>594024.5808771066</v>
+        <v>594024.5808771068</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>594024.5808771066</v>
+        <v>594024.5808771068</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>594024.5808771065</v>
+        <v>594024.5808771066</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>594024.5808771065</v>
+        <v>594024.5808771066</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>594024.5808771066</v>
+        <v>594024.5808771065</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>594024.5808771066</v>
+        <v>594024.5808771068</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>594024.5808771066</v>
+        <v>594024.5808771068</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>594024.5808771066</v>
+        <v>594024.5808771068</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>488647.1790973709</v>
+        <v>488647.1790973708</v>
       </c>
       <c r="C2" t="n">
         <v>488647.1790973707</v>
       </c>
       <c r="D2" t="n">
-        <v>488647.1790973708</v>
+        <v>488647.1790973709</v>
       </c>
       <c r="E2" t="n">
-        <v>434473.0013026407</v>
+        <v>434473.0013026405</v>
       </c>
       <c r="F2" t="n">
-        <v>434473.0013026407</v>
+        <v>434473.0013026408</v>
       </c>
       <c r="G2" t="n">
-        <v>434473.0013026408</v>
+        <v>434473.0013026405</v>
       </c>
       <c r="H2" t="n">
         <v>434473.0013026408</v>
       </c>
       <c r="I2" t="n">
-        <v>434473.0013026407</v>
+        <v>434473.0013026408</v>
       </c>
       <c r="J2" t="n">
         <v>434473.0013026407</v>
@@ -26343,19 +26343,19 @@
         <v>434473.0013026407</v>
       </c>
       <c r="L2" t="n">
-        <v>434473.0013026408</v>
+        <v>434473.0013026406</v>
       </c>
       <c r="M2" t="n">
         <v>434473.0013026405</v>
       </c>
       <c r="N2" t="n">
-        <v>434473.0013026407</v>
+        <v>434473.0013026408</v>
       </c>
       <c r="O2" t="n">
         <v>434473.0013026408</v>
       </c>
       <c r="P2" t="n">
-        <v>434473.0013026405</v>
+        <v>434473.0013026407</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>71864.46850972368</v>
+        <v>71864.46850972369</v>
       </c>
       <c r="E4" t="n">
         <v>15465.37373706398</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83547.37040566321</v>
+        <v>83547.37040566312</v>
       </c>
       <c r="C6" t="n">
         <v>258502.8802987771</v>
       </c>
       <c r="D6" t="n">
-        <v>145954.1703223784</v>
+        <v>145954.1703223785</v>
       </c>
       <c r="E6" t="n">
-        <v>321173.4631397692</v>
+        <v>320992.8825471199</v>
       </c>
       <c r="F6" t="n">
-        <v>348142.4173207034</v>
+        <v>347961.8367280544</v>
       </c>
       <c r="G6" t="n">
-        <v>348142.4173207036</v>
+        <v>347961.8367280542</v>
       </c>
       <c r="H6" t="n">
-        <v>348142.4173207036</v>
+        <v>347961.8367280544</v>
       </c>
       <c r="I6" t="n">
-        <v>348142.4173207034</v>
+        <v>347961.8367280544</v>
       </c>
       <c r="J6" t="n">
-        <v>211547.6165148084</v>
+        <v>211367.0359221593</v>
       </c>
       <c r="K6" t="n">
-        <v>348142.4173207034</v>
+        <v>347961.8367280543</v>
       </c>
       <c r="L6" t="n">
-        <v>208143.1064559508</v>
+        <v>207962.5258633015</v>
       </c>
       <c r="M6" t="n">
-        <v>325633.1525466559</v>
+        <v>325452.5719540067</v>
       </c>
       <c r="N6" t="n">
-        <v>348142.4173207034</v>
+        <v>347961.8367280544</v>
       </c>
       <c r="O6" t="n">
-        <v>348142.4173207035</v>
+        <v>347961.8367280544</v>
       </c>
       <c r="P6" t="n">
-        <v>348142.4173207033</v>
+        <v>347961.8367280543</v>
       </c>
     </row>
   </sheetData>
@@ -27381,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>235.2752207238901</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>355.1006600843733</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>130.1826302233613</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>102.7644030305577</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>11.48287933845666</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>231.7439112705374</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27681,10 +27681,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>93.42278888971721</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -27824,7 +27824,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>90.91993183975306</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>393.0160384451234</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>105.2939281903808</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28022,16 +28022,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>93.3933248039117</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>204.6738712562207</v>
       </c>
     </row>
     <row r="11">
@@ -34704,10 +34704,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>244.2170912967377</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
@@ -34716,13 +34716,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>147.5918456237788</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>367.8628411009266</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>483.6656356837484</v>
       </c>
       <c r="L8" t="n">
-        <v>686.5452198667498</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>832.0152842855368</v>
+        <v>210.7165365725543</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35491,13 +35491,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9528840943865</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35731,19 +35731,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>146.2707129942796</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>110.3303957334049</v>
+        <v>448.7789367637054</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>390.8459044639358</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>405.4769987570326</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
@@ -36697,7 +36697,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>405.4769987570326</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>121.3646874378037</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
@@ -37308,7 +37308,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.15638339129857</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M39" t="n">
-        <v>90.37376681451964</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37800,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R41" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>667.7658302215033</v>
@@ -37870,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>832.0152842855372</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>353.1425107818302</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
